--- a/files/originalFiles/08_M121_Testcases.xlsx
+++ b/files/originalFiles/08_M121_Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\M121\files\originalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB298B-799E-4ECD-9D44-EB89BEB2DA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7B7E82-61FE-411B-B536-B592E5591DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38DA08CA-F0D9-462B-89BD-AEA23ADAAEED}"/>
   </bookViews>
@@ -848,7 +848,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="72" zoomScaleSheetLayoutView="67" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
